--- a/plots/ICAC/Section-4.xlsx
+++ b/plots/ICAC/Section-4.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_SelfHealingUtility\plots\ICAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76AA3C6-6631-4007-910E-644F0ABC5565}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06985A55-C42F-4088-8786-C595403BFAA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18113" windowHeight="7178" xr2:uid="{96C5CBE1-188D-4CBD-A9C8-90FDD344569E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18113" windowHeight="7178" activeTab="1" xr2:uid="{96C5CBE1-188D-4CBD-A9C8-90FDD344569E}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined-PredError" sheetId="1" r:id="rId1"/>
     <sheet name="All-Methods" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Size of Datasets for training (70/30 split)</t>
   </si>
@@ -129,18 +126,15 @@
   <si>
     <t>GBM 5</t>
   </si>
-  <si>
-    <t>GBM 10</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +163,12 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,13 +251,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,25 +261,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="18">
     <dxf>
       <font>
         <b val="0"/>
@@ -303,7 +304,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -323,7 +324,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -343,210 +344,8 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Lucida Console"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -606,7 +405,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -626,7 +425,88 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -646,7 +526,27 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2658,13 +2558,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57788892999999997</c:v>
+                  <c:v>0.57788890000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99590979999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.606290408</c:v>
+                  <c:v>2.9417784</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.2692152999999999</c:v>
@@ -2806,824 +2706,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DB0D-4E08-AFD4-23346C33CD99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="412414392"/>
-        <c:axId val="412411112"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="412414392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800"/>
-                  <a:t>Machine Learning</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="800"/>
-                  <a:t>Methods</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="412411112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="412411112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>MAPD </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="412414392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14355372742586281"/>
-          <c:y val="0.2109540025494383"/>
-          <c:w val="0.37246648646531122"/>
-          <c:h val="7.6967443784755188E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>Prediction error across methods</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18627480314960629"/>
-          <c:y val="2.1798383830061861E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1373954378556049"/>
-          <c:y val="0.15988667267600612"/>
-          <c:w val="0.83354247495813349"/>
-          <c:h val="0.63375568417174166"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'All-Methods'!$B$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All-Methods'!$A$44:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Linear</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Saturating</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Discontinuous</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'All-Methods'!$B$44:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.6257562261174399E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.78079142700396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.95895605952218</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6631913256619901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2ED5-4937-8262-72766A3A4E18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'All-Methods'!$C$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GBM 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="55000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All-Methods'!$A$44:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Linear</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Saturating</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Discontinuous</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'All-Methods'!$C$44:$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.57788892999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99590979999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.606290408</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2692152999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2ED5-4937-8262-72766A3A4E18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'All-Methods'!$D$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XGB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'All-Methods'!$A$44:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Linear</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Saturating</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Discontinuous</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'All-Methods'!$D$44:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.8121533916777101E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47339255834478999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91162854984439801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.57409891572279</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2ED5-4937-8262-72766A3A4E18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4038,33 +3120,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5072,509 +4127,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6198,191 +4750,40 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66FBF6D-EB43-4755-9644-B81467BFAF82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="100"/>
-      <sheetName val="1000"/>
-      <sheetName val="10k"/>
-      <sheetName val="Results"/>
-      <sheetName val="Results-FinalData"/>
-      <sheetName val="Results-FeatSel-FinalData"/>
-      <sheetName val="Results-FeatSel-Linear"/>
-      <sheetName val="Results-1k3k9k-XGB"/>
-      <sheetName val="Results-1k3k9k-GBM"/>
-      <sheetName val="Results-1k3k9k-RF"/>
-      <sheetName val="Compare"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>RF</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>GBM</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>XGB</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Linear</v>
-          </cell>
-          <cell r="B5">
-            <v>5.6257562261174399E-2</v>
-          </cell>
-          <cell r="C5">
-            <v>0.57788892999999997</v>
-          </cell>
-          <cell r="D5">
-            <v>1.8121533916777101E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Saturating</v>
-          </cell>
-          <cell r="B6">
-            <v>1.78079142700396</v>
-          </cell>
-          <cell r="C6">
-            <v>1.575858395</v>
-          </cell>
-          <cell r="D6">
-            <v>0.47339255834478999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Discontinuous</v>
-          </cell>
-          <cell r="B7">
-            <v>1.95895605952218</v>
-          </cell>
-          <cell r="C7">
-            <v>3.606290408</v>
-          </cell>
-          <cell r="D7">
-            <v>0.91162854984439801</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Combined</v>
-          </cell>
-          <cell r="B8">
-            <v>4.6631913256619901</v>
-          </cell>
-          <cell r="C8">
-            <v>4.8810719230000004</v>
-          </cell>
-          <cell r="D8">
-            <v>1.57409891572279</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B6B157-595A-481D-83D6-1F3C4B6BADDB}" name="Table1101822" displayName="Table1101822" ref="A3:D6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99B6B157-595A-481D-83D6-1F3C4B6BADDB}" name="Table1101822" displayName="Table1101822" ref="A3:D6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DD786E9F-F0EE-42BE-B15E-E011FBB35D25}" name="Methods" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{538D46D6-74DE-4162-B12C-DA3AE7C70A3F}" name="1K" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{6B2D0AB2-5E61-451D-B247-977E2FCC5D36}" name="3K" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{550BF048-FABB-49C7-9E10-118A47530CE6}" name="9K" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{DD786E9F-F0EE-42BE-B15E-E011FBB35D25}" name="Methods" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{538D46D6-74DE-4162-B12C-DA3AE7C70A3F}" name="1K" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6B2D0AB2-5E61-451D-B247-977E2FCC5D36}" name="3K" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{550BF048-FABB-49C7-9E10-118A47530CE6}" name="9K" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2035CD80-53D2-44CD-9352-99E8C4587382}" name="Table1101827" displayName="Table1101827" ref="A5:D9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2035CD80-53D2-44CD-9352-99E8C4587382}" name="Table1101827" displayName="Table1101827" ref="A5:D9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5DA469C-5C7B-40E0-BAB0-0E69CF1C4701}" name="Utility Model" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{1FF0B714-90F7-4907-BE3D-5862C2C360B8}" name="GBM 5" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DEA346F5-10C1-4344-9FB2-A60724340219}" name="RF" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{1C7E23E3-3E92-4827-9C31-EE5E41449551}" name="XGB" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B5DA469C-5C7B-40E0-BAB0-0E69CF1C4701}" name="Utility Model" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1FF0B714-90F7-4907-BE3D-5862C2C360B8}" name="GBM 5" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DEA346F5-10C1-4344-9FB2-A60724340219}" name="RF" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1C7E23E3-3E92-4827-9C31-EE5E41449551}" name="XGB" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C5DE5EC8-9FFC-46F5-8CF7-540218773D69}" name="Table11018274" displayName="Table11018274" ref="A31:D35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C5DE5EC8-9FFC-46F5-8CF7-540218773D69}" name="Table11018274" displayName="Table11018274" ref="A31:D35" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{385306F5-897F-427B-8F6B-EDBC503041AF}" name="Utility Model" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6C374884-8C16-4EA4-A465-14E0E0310558}" name="RF" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{243E8CF3-7302-481F-815A-4A032C810770}" name="GBM 15" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{176E5556-2568-4DD6-93EF-8B839C90ED23}" name="XGB" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99F3ACFD-8C30-42CB-8ED8-9D7526D6BCF1}" name="Table110182745" displayName="Table110182745" ref="A43:D47" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74FDA95F-494F-4335-B5F4-CE5C5A90E07E}" name="Utility Model" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F46FBFD0-576E-4BDF-929E-E9B713B3B537}" name="RF" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0A9AC57D-1E75-4F2B-A467-C61C8BB7653B}" name="GBM 10" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{33C5A8C4-125C-4911-8CD0-C65EB7C622E3}" name="XGB" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{385306F5-897F-427B-8F6B-EDBC503041AF}" name="Utility Model" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6C374884-8C16-4EA4-A465-14E0E0310558}" name="RF" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{243E8CF3-7302-481F-815A-4A032C810770}" name="GBM 15" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{176E5556-2568-4DD6-93EF-8B839C90ED23}" name="XGB" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6687,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C12D48D-3A8A-4225-B2BD-AB368E0AB526}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -6718,12 +5119,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="M2" s="10">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="M2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6743,7 +5144,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6751,19 +5152,19 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>10.8231773048863</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>8.1369195553443507</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4.6631913256619901</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6771,19 +5172,19 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5.6291581487584601</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4.8658264934669901</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3.7327964439221901</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>4</v>
       </c>
     </row>
@@ -6791,16 +5192,16 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3.0856509120857201</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2.61499531459368</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.57409891572279</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6810,27 +5211,27 @@
         <v>4</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>10</v>
       </c>
     </row>
@@ -6879,10 +5280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6056A023-738A-49DF-8FEA-C9F4ACC5F81E}">
-  <dimension ref="A3:M47"/>
+  <dimension ref="A3:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6908,12 +5309,12 @@
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="M4" s="10">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="M4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6921,17 +5322,17 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6939,17 +5340,17 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.57788892999999997</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>5.6257562261174399E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1.8121533916777101E-2</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>3</v>
       </c>
     </row>
@@ -6957,17 +5358,17 @@
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1.575858395</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>1.78079142700396</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.47339255834478999</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>4</v>
       </c>
     </row>
@@ -6975,16 +5376,16 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3.606290408</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1.95895605952218</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.91162854984439801</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>5</v>
       </c>
     </row>
@@ -6992,37 +5393,37 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>4.8810719230000004</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>4.6631913256619901</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>1.57409891572279</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="M13" s="10">
+      <c r="M13" s="8">
         <v>10</v>
       </c>
     </row>
@@ -7081,27 +5482,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C28" s="17"/>
+    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7109,13 +5513,13 @@
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>5.6257562261174399E-2</v>
       </c>
-      <c r="C32" s="6">
-        <v>0.57788892999999997</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="5">
+        <v>0.57788890000000004</v>
+      </c>
+      <c r="D32" s="10">
         <v>1.8121533916777101E-2</v>
       </c>
     </row>
@@ -7123,13 +5527,13 @@
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>1.78079142700396</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>0.99590979999999996</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>0.47339255834478999</v>
       </c>
     </row>
@@ -7137,13 +5541,13 @@
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>1.95895605952218</v>
       </c>
-      <c r="C34" s="6">
-        <v>3.606290408</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="5">
+        <v>2.9417784</v>
+      </c>
+      <c r="D34" s="10">
         <v>0.91162854984439801</v>
       </c>
     </row>
@@ -7151,109 +5555,27 @@
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <v>4.6631913256619901</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>3.2692152999999999</v>
       </c>
-      <c r="D35" s="16">
-        <v>1.57409891572279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="11">
-        <v>5.6257562261174399E-2</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.57788892999999997</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1.8121533916777101E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1.78079142700396</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.99590979999999996</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0.47339255834478999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1.95895605952218</v>
-      </c>
-      <c r="C46" s="6">
-        <v>3.606290408</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0.91162854984439801</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4.6631913256619901</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3.2692152999999999</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="D35" s="14">
         <v>1.57409891572279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>